--- a/database/macro/my.xlsx
+++ b/database/macro/my.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="سالانه" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>سال</t>
   </si>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>cpi</t>
-  </si>
-  <si>
-    <t>ضریب رشد صادرات</t>
-  </si>
-  <si>
-    <t>ضریب رشد واردات</t>
   </si>
 </sst>
 </file>
@@ -245,7 +239,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -258,9 +252,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -269,12 +260,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -560,103 +551,103 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="36.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="36.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -728,7 +719,7 @@
       <c r="U2" s="6">
         <v>5062</v>
       </c>
-      <c r="V2" s="18"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
@@ -801,7 +792,7 @@
       <c r="U3" s="6">
         <v>11379</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="15">
         <f t="shared" ref="V3:V20" si="5">U3/U2-1</f>
         <v>1.2479257210588699</v>
       </c>
@@ -877,7 +868,7 @@
       <c r="U4" s="6">
         <v>12113</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="15">
         <f t="shared" si="5"/>
         <v>6.4504789524562733E-2</v>
       </c>
@@ -953,7 +944,7 @@
       <c r="U5" s="6">
         <v>9459</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="15">
         <f t="shared" si="5"/>
         <v>-0.21910344258234959</v>
       </c>
@@ -1029,7 +1020,7 @@
       <c r="U6" s="6">
         <v>9821</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="15">
         <f t="shared" si="5"/>
         <v>3.8270430278042111E-2</v>
       </c>
@@ -1094,7 +1085,7 @@
       <c r="R7" s="6">
         <v>20490</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="16">
         <f>R7/R6-1</f>
         <v>1.1455497382198954</v>
       </c>
@@ -1105,7 +1096,7 @@
       <c r="U7" s="6">
         <v>10081</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="15">
         <f t="shared" si="5"/>
         <v>2.6473882496690804E-2</v>
       </c>
@@ -1181,7 +1172,7 @@
       <c r="U8" s="6">
         <v>7966</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="15">
         <f t="shared" si="5"/>
         <v>-0.20980061501835134</v>
       </c>
@@ -1257,7 +1248,7 @@
       <c r="U9" s="6">
         <v>12536</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="15">
         <f t="shared" si="5"/>
         <v>0.57368817474265632</v>
       </c>
@@ -1333,7 +1324,7 @@
       <c r="U10" s="6">
         <v>23294</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="15">
         <f t="shared" si="5"/>
         <v>0.85816847479259728</v>
       </c>
@@ -1407,7 +1398,7 @@
       <c r="U11" s="6">
         <v>25905</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="15">
         <f t="shared" si="5"/>
         <v>0.11208894994419172</v>
       </c>
@@ -1472,7 +1463,7 @@
       <c r="R12" s="6">
         <v>47454.632587118773</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="16">
         <f t="shared" si="6"/>
         <v>1.3689123211494527</v>
       </c>
@@ -1483,7 +1474,7 @@
       <c r="U12" s="6">
         <v>38040</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="15">
         <f t="shared" si="5"/>
         <v>0.46844238563983787</v>
       </c>
@@ -1559,7 +1550,7 @@
       <c r="U13" s="6">
         <v>79015</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="15">
         <f t="shared" si="5"/>
         <v>1.0771556256572028</v>
       </c>
@@ -1635,7 +1626,7 @@
       <c r="U14" s="6">
         <v>62531</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="15">
         <f t="shared" si="5"/>
         <v>-0.20861861671834458</v>
       </c>
@@ -1711,7 +1702,7 @@
       <c r="U15" s="6">
         <v>80219</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="15">
         <f t="shared" si="5"/>
         <v>0.2828676976219795</v>
       </c>
@@ -1787,7 +1778,7 @@
       <c r="U16" s="6">
         <v>77230</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="15">
         <f t="shared" si="5"/>
         <v>-3.7260499382939183E-2</v>
       </c>
@@ -1863,7 +1854,7 @@
       <c r="U17" s="6">
         <v>96290</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="15">
         <f t="shared" si="5"/>
         <v>0.24679528680564555</v>
       </c>
@@ -1927,7 +1918,7 @@
       <c r="R18" s="6">
         <v>145466.3678995666</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="16">
         <f t="shared" si="17"/>
         <v>1.4275752039960667</v>
       </c>
@@ -1938,7 +1929,7 @@
       <c r="U18" s="6">
         <v>178659</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="15">
         <f t="shared" si="5"/>
         <v>0.85542631633606803</v>
       </c>
@@ -2012,7 +2003,7 @@
       <c r="U19" s="6">
         <v>512901</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="15">
         <f t="shared" si="5"/>
         <v>1.8708377411717292</v>
       </c>
@@ -2075,7 +2066,7 @@
       <c r="R20" s="6">
         <v>445742</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="16">
         <f>R20/R19-1</f>
         <v>1.1414460725438387</v>
       </c>
@@ -2086,7 +2077,7 @@
       <c r="U20" s="6">
         <v>1307707</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="15">
         <f t="shared" si="5"/>
         <v>1.5496284858091522</v>
       </c>
@@ -2160,92 +2151,92 @@
       <c r="U21" s="6">
         <v>1367247</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="15">
         <f>U21/U20-1</f>
         <v>4.5530076691491228E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="22">
+      <c r="A22" s="18">
         <v>1401</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18">
         <f>'1401'!B5</f>
         <v>6530</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="18">
         <f>'1401'!C5</f>
         <v>885</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="18">
         <f>'1401'!D5</f>
         <v>10935</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="19">
         <f>'1401'!E5</f>
         <v>40681.4</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="19">
         <f>'1401'!F5</f>
         <v>52501.4</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23">
-        <f>J21*'1401'!B15</f>
-        <v>95554.64730719362</v>
-      </c>
-      <c r="K22" s="23">
-        <f>K21*'1401'!B16</f>
-        <v>75254.215835830095</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19" t="e">
+        <f>J21*'1401'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="19" t="e">
+        <f>K21*'1401'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20">
         <f t="shared" si="14"/>
         <v>0.48376164925162368</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="19">
         <f>'1401'!I7</f>
         <v>525.4</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19">
         <v>1303168</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="15">
         <f>U22/U21-1</f>
         <v>-4.6867171769256033E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L23" s="20"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L24" s="20"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L25" s="20"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L26" s="20"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L27" s="20"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L28" s="20"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L29" s="20"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="L30" s="20"/>
+      <c r="L30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2257,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2308,350 +2299,350 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="25">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>4652.5</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="22">
         <v>720.7</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>5886.9</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="22">
         <v>28293.1</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="22">
         <v>34900.699999999997</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="22">
         <v>2968</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="22">
         <v>2794</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="25">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>4930.5</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>718.9</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>6223.4</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="22">
         <v>29065.5</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="22">
         <v>36007.800000000003</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="22">
         <v>3352</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="22">
         <v>3731</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="25">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>5009</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>715</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>6546.9</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>29792.1</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <f>E4+D4+C4</f>
         <v>37054</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>4368</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>3945</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="25">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>5174.5</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>721.7</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>6776.8</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <v>30701.3</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="22">
         <f>E5+D5+C5</f>
         <v>38199.799999999996</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="22">
         <v>3650</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="22">
         <v>4106</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="25">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>5159.3999999999996</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>726.6</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>7089.1</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <v>31398.6</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <f t="shared" ref="F6:F13" si="0">E6+D6+C6</f>
         <v>39214.299999999996</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>3323</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>2055</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="25">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>5189.2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>727.1</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>7437.8</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <v>32511.1</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="22">
         <f t="shared" si="0"/>
         <v>40676</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>4145</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>6490</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="25">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>5301</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>735.1</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>7451.7</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <v>34087.4</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <f t="shared" si="0"/>
         <v>42274.2</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="22">
         <v>5268</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>4618</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="25">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>5403.7</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>738.6</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>7659.7</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>34760.699999999997</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="22">
         <f t="shared" si="0"/>
         <v>43158.999999999993</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="22">
         <v>4026</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <v>4293</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="25">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>5608.6</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>738.8</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>8040.2</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <v>35490.9</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>44269.9</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>4044</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>4911</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>5679.2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>737.1</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <v>7996.7</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <v>36280.800000000003</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <f t="shared" si="0"/>
         <v>45014.6</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <v>3620</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <v>4530</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="25">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>5807.5</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>752.1</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>8410.2999999999993</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <v>37077.9</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>46240.299999999996</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>4753</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>5104</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>6039.7</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>864.3</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>9001.5</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>38458.6</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <f t="shared" si="0"/>
         <v>48324.4</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>5103</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>6435</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
@@ -2669,25 +2660,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -2719,266 +2711,249 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="22">
         <v>6117.8</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="22">
         <v>848.7</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="22">
         <v>8671.1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="22">
         <v>38713.1</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="22">
         <f>C2+D2+E2</f>
         <v>48232.9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="22">
         <v>3698.7099840000001</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="22">
         <v>2823.730810956301</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="22">
         <v>415</v>
       </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="22">
         <v>6432.1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="22">
         <v>855.1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="22">
         <v>9239.6</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="22">
         <v>39340</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="22">
         <f>C3+D3+E3</f>
         <v>49434.7</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="22">
         <v>4817.2588750000004</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="22">
         <v>5291.1751112473194</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="22">
         <v>429.6</v>
       </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="22">
         <v>6403</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="22">
         <v>860.7</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="22">
         <v>10407.700000000001</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="22">
         <v>39781.199999999997</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="22">
         <f>C4+D4+E4</f>
         <v>51049.599999999999</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="22">
         <v>4553</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="22">
         <v>4061</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="22">
         <v>482.1</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="22">
         <v>6530</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="22">
         <v>885</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="22">
         <v>10935</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="22">
         <v>40681.4</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="22">
         <f>C5+D5+E5</f>
         <v>52501.4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="22">
         <v>4171</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="22">
         <v>5064</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="23">
         <v>504.3</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23">
         <v>514.20000000000005</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="14">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23">
         <v>525.4</v>
       </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="21">
-        <f>SUM(G2:G5)/SUM('1400'!G2:G5)</f>
-        <v>1.2023970469382061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="21">
-        <f>SUM(H2:H5)/SUM('1400'!H2:H5)</f>
-        <v>1.1827597367044196</v>
-      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/database/macro/my.xlsx
+++ b/database/macro/my.xlsx
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2839,11 +2839,22 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="22">
+        <v>6724.4</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1002.5</v>
+      </c>
+      <c r="D6" s="22">
+        <v>11273.2</v>
+      </c>
+      <c r="E6" s="22">
+        <v>41854.800000000003</v>
+      </c>
+      <c r="F6" s="22">
+        <f>E6+D6</f>
+        <v>53128</v>
+      </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="23">
@@ -2855,11 +2866,22 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="22">
+        <v>6907.3</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1023.2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>11824.3</v>
+      </c>
+      <c r="E7" s="22">
+        <v>43206.8</v>
+      </c>
+      <c r="F7" s="22">
+        <f>E7+D7+C7</f>
+        <v>56054.3</v>
+      </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="23">

--- a/database/macro/my.xlsx
+++ b/database/macro/my.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="سالانه" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -266,6 +266,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -550,11 +551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21:O21"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -2161,58 +2162,26 @@
         <v>1401</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="18">
-        <f>'1401'!B5</f>
-        <v>6530</v>
-      </c>
-      <c r="D22" s="18">
-        <f>'1401'!C5</f>
-        <v>885</v>
-      </c>
-      <c r="E22" s="18">
-        <f>'1401'!D5</f>
-        <v>10935</v>
-      </c>
-      <c r="F22" s="19">
-        <f>'1401'!E5</f>
-        <v>40681.4</v>
-      </c>
-      <c r="G22" s="19">
-        <f>'1401'!F5</f>
-        <v>52501.4</v>
-      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="19" t="e">
-        <f>J21*'1401'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="19" t="e">
-        <f>K21*'1401'!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="20">
-        <f t="shared" si="14"/>
-        <v>0.48376164925162368</v>
-      </c>
-      <c r="O22" s="19">
-        <f>'1401'!I7</f>
-        <v>525.4</v>
-      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
-      <c r="U22" s="19">
-        <v>1303168</v>
-      </c>
-      <c r="V22" s="15">
-        <f>U22/U21-1</f>
-        <v>-4.6867171769256033E-2</v>
-      </c>
+      <c r="U22" s="19"/>
+      <c r="V22" s="15"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="L23" s="17"/>
@@ -2249,7 +2218,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2660,10 +2629,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2855,8 +2827,12 @@
         <f>E6+D6</f>
         <v>53128</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="22">
+        <v>3685</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4424</v>
+      </c>
       <c r="I6" s="23">
         <v>514.20000000000005</v>
       </c>
@@ -2882,8 +2858,12 @@
         <f>E7+D7+C7</f>
         <v>56054.3</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="22">
+        <v>3326</v>
+      </c>
+      <c r="H7" s="22">
+        <v>4366</v>
+      </c>
       <c r="I7" s="23">
         <v>525.4</v>
       </c>
@@ -2893,85 +2873,44 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="22">
+        <v>7129.3</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1042.5999999999999</v>
+      </c>
+      <c r="D8" s="22">
+        <v>11842.5</v>
+      </c>
+      <c r="E8" s="22">
+        <v>43971</v>
+      </c>
+      <c r="F8" s="22">
+        <f>E8+D8+C8</f>
+        <v>56856.1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>4155</v>
+      </c>
+      <c r="H8" s="22">
+        <v>5696</v>
+      </c>
+      <c r="I8" s="21">
+        <v>541</v>
+      </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F15" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/macro/my.xlsx
+++ b/database/macro/my.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="سالانه" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>سال</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>cpi</t>
+  </si>
+  <si>
+    <t>us_inflation</t>
   </si>
 </sst>
 </file>
@@ -549,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21:J21"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -581,10 +584,11 @@
     <col min="20" max="20" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="12"/>
+    <col min="23" max="23" width="18.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -651,8 +655,11 @@
       <c r="V1" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W1" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>1381</v>
       </c>
@@ -721,8 +728,11 @@
         <v>5062</v>
       </c>
       <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W2" s="17">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1382</v>
       </c>
@@ -797,8 +807,11 @@
         <f t="shared" ref="V3:V20" si="5">U3/U2-1</f>
         <v>1.2479257210588699</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W3" s="17">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>1383</v>
       </c>
@@ -873,8 +886,11 @@
         <f t="shared" si="5"/>
         <v>6.4504789524562733E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W4" s="17">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>1384</v>
       </c>
@@ -949,8 +965,11 @@
         <f t="shared" si="5"/>
         <v>-0.21910344258234959</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W5" s="17">
+        <v>3.39E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>1385</v>
       </c>
@@ -1025,8 +1044,11 @@
         <f t="shared" si="5"/>
         <v>3.8270430278042111E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W6" s="17">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>1386</v>
       </c>
@@ -1101,8 +1123,11 @@
         <f t="shared" si="5"/>
         <v>2.6473882496690804E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W7" s="17">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>1387</v>
       </c>
@@ -1177,8 +1202,11 @@
         <f t="shared" si="5"/>
         <v>-0.20980061501835134</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W8" s="17">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>1388</v>
       </c>
@@ -1253,8 +1281,11 @@
         <f t="shared" si="5"/>
         <v>0.57368817474265632</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W9" s="17">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>1389</v>
       </c>
@@ -1329,8 +1360,11 @@
         <f t="shared" si="5"/>
         <v>0.85816847479259728</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>1390</v>
       </c>
@@ -1403,8 +1437,11 @@
         <f t="shared" si="5"/>
         <v>0.11208894994419172</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W11" s="17">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>1391</v>
       </c>
@@ -1479,8 +1516,11 @@
         <f t="shared" si="5"/>
         <v>0.46844238563983787</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W12" s="17">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>1392</v>
       </c>
@@ -1524,7 +1564,7 @@
         <v>9421.2150000000001</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" ref="N13:N22" si="14">O13/O12-1</f>
+        <f t="shared" ref="N13:N21" si="14">O13/O12-1</f>
         <v>0.32911392405063289</v>
       </c>
       <c r="O13" s="5">
@@ -1555,8 +1595,11 @@
         <f t="shared" si="5"/>
         <v>1.0771556256572028</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W13" s="17">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>1393</v>
       </c>
@@ -1631,8 +1674,11 @@
         <f t="shared" si="5"/>
         <v>-0.20861861671834458</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W14" s="17">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>1394</v>
       </c>
@@ -1707,8 +1753,11 @@
         <f t="shared" si="5"/>
         <v>0.2828676976219795</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W15" s="17">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>1395</v>
       </c>
@@ -1783,8 +1832,11 @@
         <f t="shared" si="5"/>
         <v>-3.7260499382939183E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W16" s="17">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>1396</v>
       </c>
@@ -1859,8 +1911,11 @@
         <f t="shared" si="5"/>
         <v>0.24679528680564555</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W17" s="17">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>1397</v>
       </c>
@@ -1934,8 +1989,11 @@
         <f t="shared" si="5"/>
         <v>0.85542631633606803</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W18" s="17">
+        <v>2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>1398</v>
       </c>
@@ -2008,8 +2066,11 @@
         <f t="shared" si="5"/>
         <v>1.8708377411717292</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W19" s="17">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>1399</v>
       </c>
@@ -2082,8 +2143,11 @@
         <f t="shared" si="5"/>
         <v>1.5496284858091522</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W20" s="17">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>1400</v>
       </c>
@@ -2156,8 +2220,11 @@
         <f>U21/U20-1</f>
         <v>4.5530076691491228E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W21" s="17">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="18">
         <v>1401</v>
       </c>
@@ -2182,29 +2249,32 @@
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="15"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W22" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="L30" s="17"/>
     </row>
   </sheetData>
@@ -2631,11 +2701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2899,6 +2969,81 @@
         <v>541</v>
       </c>
       <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22">
+        <v>7276</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1069</v>
+      </c>
+      <c r="D9" s="22">
+        <v>12518</v>
+      </c>
+      <c r="E9" s="22">
+        <v>44565</v>
+      </c>
+      <c r="F9" s="22">
+        <f>E9+D9+C9</f>
+        <v>58152</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22">
+        <v>7663</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1103</v>
+      </c>
+      <c r="D10" s="22">
+        <v>12891</v>
+      </c>
+      <c r="E10" s="22">
+        <v>45147</v>
+      </c>
+      <c r="F10" s="22">
+        <f>E10+D10+C10</f>
+        <v>59141</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22">
+        <v>7850</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1147</v>
+      </c>
+      <c r="D11" s="22">
+        <v>13837</v>
+      </c>
+      <c r="E11" s="22">
+        <v>45484</v>
+      </c>
+      <c r="F11" s="22">
+        <f>E11+D11+C11</f>
+        <v>60468</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F12" s="24"/>
